--- a/fgt-tables/fgt_regiao_rm.xlsx
+++ b/fgt-tables/fgt_regiao_rm.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.2006289321413353</v>
+        <v>0.1723128898356615</v>
       </c>
       <c r="C2">
-        <v>0.003944920036712526</v>
+        <v>0.003303860599588913</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4089815625477078</v>
+        <v>0.3580959746890076</v>
       </c>
       <c r="C3">
-        <v>0.003010274872510038</v>
+        <v>0.002839634754745392</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3975829554926223</v>
+        <v>0.3402074837213397</v>
       </c>
       <c r="C4">
-        <v>0.004777066241719434</v>
+        <v>0.004339140753139611</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.1943935237636342</v>
+        <v>0.1624886556157242</v>
       </c>
       <c r="C5">
-        <v>0.003101531125058232</v>
+        <v>0.002529849915437787</v>
       </c>
     </row>
     <row r="6">
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.1535733614855704</v>
+        <v>0.1283414277294919</v>
       </c>
       <c r="C6">
-        <v>0.002861370911365949</v>
+        <v>0.002374545865387838</v>
       </c>
     </row>
   </sheetData>
